--- a/routings/address.xlsx
+++ b/routings/address.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
